--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="6270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15770" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>Lorna</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -350,15 +356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -367,6 +373,17 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,6 +392,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
